--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.532879113376422</v>
+        <v>0.2559396666666667</v>
       </c>
       <c r="H2">
-        <v>0.532879113376422</v>
+        <v>0.767819</v>
       </c>
       <c r="I2">
-        <v>0.5609078327904615</v>
+        <v>0.1699926739796984</v>
       </c>
       <c r="J2">
-        <v>0.5609078327904615</v>
+        <v>0.1699926739796984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.0215681500001</v>
+        <v>0.150539</v>
       </c>
       <c r="N2">
-        <v>22.0215681500001</v>
+        <v>0.451617</v>
       </c>
       <c r="O2">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607021</v>
       </c>
       <c r="P2">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607022</v>
       </c>
       <c r="Q2">
-        <v>11.73483371093051</v>
+        <v>0.03852890148033333</v>
       </c>
       <c r="R2">
-        <v>11.73483371093051</v>
+        <v>0.3467601133230001</v>
       </c>
       <c r="S2">
-        <v>0.3447503869925167</v>
+        <v>0.0007023128335031196</v>
       </c>
       <c r="T2">
-        <v>0.3447503869925167</v>
+        <v>0.0007023128335031198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +596,917 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.532879113376422</v>
+        <v>0.2559396666666667</v>
       </c>
       <c r="H3">
-        <v>0.532879113376422</v>
+        <v>0.767819</v>
       </c>
       <c r="I3">
-        <v>0.5609078327904615</v>
+        <v>0.1699926739796984</v>
       </c>
       <c r="J3">
-        <v>0.5609078327904615</v>
+        <v>0.1699926739796984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8074563608038</v>
+        <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>13.8074563608038</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.3853707029238347</v>
+        <v>0.6059069138232425</v>
       </c>
       <c r="P3">
-        <v>0.3853707029238347</v>
+        <v>0.6059069138232426</v>
       </c>
       <c r="Q3">
-        <v>7.357705103528767</v>
+        <v>5.650568392594667</v>
       </c>
       <c r="R3">
-        <v>7.357705103528767</v>
+        <v>50.85511553335199</v>
       </c>
       <c r="S3">
-        <v>0.2161574457979449</v>
+        <v>0.1029997364635997</v>
       </c>
       <c r="T3">
-        <v>0.2161574457979449</v>
+        <v>0.1029997364635997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.417150610268906</v>
+        <v>0.2559396666666667</v>
       </c>
       <c r="H4">
-        <v>0.417150610268906</v>
+        <v>0.767819</v>
       </c>
       <c r="I4">
-        <v>0.4390921672095385</v>
+        <v>0.1699926739796984</v>
       </c>
       <c r="J4">
-        <v>0.4390921672095385</v>
+        <v>0.1699926739796984</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0215681500001</v>
+        <v>0.015885</v>
       </c>
       <c r="N4">
-        <v>22.0215681500001</v>
+        <v>0.047655</v>
       </c>
       <c r="O4">
-        <v>0.6146292970761654</v>
+        <v>0.0004359519167219957</v>
       </c>
       <c r="P4">
-        <v>0.6146292970761654</v>
+        <v>0.0004359519167219959</v>
       </c>
       <c r="Q4">
-        <v>9.186310592850845</v>
+        <v>0.004065601605</v>
       </c>
       <c r="R4">
-        <v>9.186310592850845</v>
+        <v>0.036590414445</v>
       </c>
       <c r="S4">
-        <v>0.2698789100836487</v>
+        <v>7.410863205014683E-05</v>
       </c>
       <c r="T4">
-        <v>0.2698789100836487</v>
+        <v>7.410863205014686E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2559396666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.767819</v>
+      </c>
+      <c r="I5">
+        <v>0.1699926739796984</v>
+      </c>
+      <c r="J5">
+        <v>0.1699926739796984</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N5">
+        <v>42.580034</v>
+      </c>
+      <c r="O5">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P5">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q5">
+        <v>3.632639902871778</v>
+      </c>
+      <c r="R5">
+        <v>32.69375912584601</v>
+      </c>
+      <c r="S5">
+        <v>0.06621651605054543</v>
+      </c>
+      <c r="T5">
+        <v>0.06621651605054543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5335346666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.600604</v>
+      </c>
+      <c r="I6">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="J6">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.150539</v>
+      </c>
+      <c r="N6">
+        <v>0.451617</v>
+      </c>
+      <c r="O6">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P6">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q6">
+        <v>0.08031777518533333</v>
+      </c>
+      <c r="R6">
+        <v>0.7228599766680001</v>
+      </c>
+      <c r="S6">
+        <v>0.001464049119071587</v>
+      </c>
+      <c r="T6">
+        <v>0.001464049119071588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5335346666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.600604</v>
+      </c>
+      <c r="I7">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="J7">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.077736</v>
+      </c>
+      <c r="N7">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P7">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q7">
+        <v>11.77923751751466</v>
+      </c>
+      <c r="R7">
+        <v>106.013137657632</v>
+      </c>
+      <c r="S7">
+        <v>0.2147143925620275</v>
+      </c>
+      <c r="T7">
+        <v>0.2147143925620276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5335346666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.600604</v>
+      </c>
+      <c r="I8">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="J8">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.015885</v>
+      </c>
+      <c r="N8">
+        <v>0.047655</v>
+      </c>
+      <c r="O8">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P8">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q8">
+        <v>0.008475198179999999</v>
+      </c>
+      <c r="R8">
+        <v>0.07627678362</v>
+      </c>
+      <c r="S8">
+        <v>0.0001544876759939428</v>
+      </c>
+      <c r="T8">
+        <v>0.0001544876759939429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5335346666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.600604</v>
+      </c>
+      <c r="I9">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="J9">
+        <v>0.3543686128405276</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N9">
+        <v>42.580034</v>
+      </c>
+      <c r="O9">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P9">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q9">
+        <v>7.572641415615111</v>
+      </c>
+      <c r="R9">
+        <v>68.153772740536</v>
+      </c>
+      <c r="S9">
+        <v>0.1380356834834345</v>
+      </c>
+      <c r="T9">
+        <v>0.1380356834834345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.279251</v>
+      </c>
+      <c r="H10">
+        <v>0.837753</v>
+      </c>
+      <c r="I10">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="J10">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.150539</v>
+      </c>
+      <c r="N10">
+        <v>0.451617</v>
+      </c>
+      <c r="O10">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P10">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q10">
+        <v>0.042038166289</v>
+      </c>
+      <c r="R10">
+        <v>0.378343496601</v>
+      </c>
+      <c r="S10">
+        <v>0.0007662804426638815</v>
+      </c>
+      <c r="T10">
+        <v>0.0007662804426638817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.417150610268906</v>
-      </c>
-      <c r="H5">
-        <v>0.417150610268906</v>
-      </c>
-      <c r="I5">
-        <v>0.4390921672095385</v>
-      </c>
-      <c r="J5">
-        <v>0.4390921672095385</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.8074563608038</v>
-      </c>
-      <c r="N5">
-        <v>13.8074563608038</v>
-      </c>
-      <c r="O5">
-        <v>0.3853707029238347</v>
-      </c>
-      <c r="P5">
-        <v>0.3853707029238347</v>
-      </c>
-      <c r="Q5">
-        <v>5.759788847170593</v>
-      </c>
-      <c r="R5">
-        <v>5.759788847170593</v>
-      </c>
-      <c r="S5">
-        <v>0.1692132571258898</v>
-      </c>
-      <c r="T5">
-        <v>0.1692132571258898</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.279251</v>
+      </c>
+      <c r="H11">
+        <v>0.837753</v>
+      </c>
+      <c r="I11">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="J11">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.077736</v>
+      </c>
+      <c r="N11">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P11">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q11">
+        <v>6.165229855735999</v>
+      </c>
+      <c r="R11">
+        <v>55.48706870162399</v>
+      </c>
+      <c r="S11">
+        <v>0.1123810927075131</v>
+      </c>
+      <c r="T11">
+        <v>0.1123810927075131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.279251</v>
+      </c>
+      <c r="H12">
+        <v>0.837753</v>
+      </c>
+      <c r="I12">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="J12">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015885</v>
+      </c>
+      <c r="N12">
+        <v>0.047655</v>
+      </c>
+      <c r="O12">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P12">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q12">
+        <v>0.004435902134999999</v>
+      </c>
+      <c r="R12">
+        <v>0.039923119215</v>
+      </c>
+      <c r="S12">
+        <v>8.085854716529111E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.085854716529112E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.279251</v>
+      </c>
+      <c r="H13">
+        <v>0.837753</v>
+      </c>
+      <c r="I13">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="J13">
+        <v>0.1854758381917017</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N13">
+        <v>42.580034</v>
+      </c>
+      <c r="O13">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P13">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q13">
+        <v>3.963505691511334</v>
+      </c>
+      <c r="R13">
+        <v>35.671551223602</v>
+      </c>
+      <c r="S13">
+        <v>0.07224760649435945</v>
+      </c>
+      <c r="T13">
+        <v>0.07224760649435945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4368670000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.310601</v>
+      </c>
+      <c r="I14">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="J14">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.150539</v>
+      </c>
+      <c r="N14">
+        <v>0.451617</v>
+      </c>
+      <c r="O14">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P14">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q14">
+        <v>0.06576552131300001</v>
+      </c>
+      <c r="R14">
+        <v>0.5918896918170001</v>
+      </c>
+      <c r="S14">
+        <v>0.001198787607368432</v>
+      </c>
+      <c r="T14">
+        <v>0.001198787607368432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4368670000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.310601</v>
+      </c>
+      <c r="I15">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="J15">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.077736</v>
+      </c>
+      <c r="N15">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P15">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q15">
+        <v>9.645034293112001</v>
+      </c>
+      <c r="R15">
+        <v>86.805308638008</v>
+      </c>
+      <c r="S15">
+        <v>0.1758116920901022</v>
+      </c>
+      <c r="T15">
+        <v>0.1758116920901022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4368670000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.310601</v>
+      </c>
+      <c r="I16">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="J16">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.015885</v>
+      </c>
+      <c r="N16">
+        <v>0.047655</v>
+      </c>
+      <c r="O16">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P16">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q16">
+        <v>0.006939632295000001</v>
+      </c>
+      <c r="R16">
+        <v>0.06245669065500001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001264970615126149</v>
+      </c>
+      <c r="T16">
+        <v>0.000126497061512615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4368670000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.310601</v>
+      </c>
+      <c r="I17">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="J17">
+        <v>0.2901628749880723</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N17">
+        <v>42.580034</v>
+      </c>
+      <c r="O17">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P17">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q17">
+        <v>6.200603904492668</v>
+      </c>
+      <c r="R17">
+        <v>55.80543514043401</v>
+      </c>
+      <c r="S17">
+        <v>0.113025898229089</v>
+      </c>
+      <c r="T17">
+        <v>0.113025898229089</v>
       </c>
     </row>
   </sheetData>
